--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/word_level_predictions_99.xlsx
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G32" s="2" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -7990,158 +7990,158 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="I146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="I147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>10</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>19</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>11</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>19</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>12</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>19</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>13</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>19</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>14</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>19</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>20</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/word_level_predictions_99.xlsx
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G32" s="2" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -7990,158 +7990,158 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Flight</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>19</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Flight</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>11</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>19</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>12</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>19</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>13</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>19</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>14</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>19</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>15</v>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,265 +12665,265 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
           <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
